--- a/templates/eks_form.xlsx
+++ b/templates/eks_form.xlsx
@@ -1391,8 +1391,8 @@
   </sheetPr>
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A50" colorId="64" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E65" activeCellId="0" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2240,7 +2240,10 @@
       <c r="B44" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="39"/>
+      <c r="C44" s="39" t="n">
+        <f aca="false">C22+C24+C25+C26+C27+C28+C29+C33+C34+C35+C36-C37+C38+C39+C41+C42+C43</f>
+        <v>0</v>
+      </c>
       <c r="D44" s="39" t="n">
         <f aca="false">D22+D24+D25+D26+D27+D28+D29+D33+D34+D35+D36-D37+D38+D39+D41+D42+D43</f>
         <v>0</v>
@@ -2730,7 +2733,10 @@
         <v>100</v>
       </c>
       <c r="B68" s="80"/>
-      <c r="C68" s="39"/>
+      <c r="C68" s="39" t="n">
+        <f aca="false">C44+C48+C49+C50+C51+C52+C53+C55+C56+C57+C58+C59+C60+C61+C62+C63+C64+C65+C66+C67</f>
+        <v>0</v>
+      </c>
       <c r="D68" s="39" t="n">
         <f aca="false">D44+D48+D49+D50+D51+D52+D53+D55+D56+D57+D58+D59+D60+D61+D62+D63+D64+D65+D66+D67</f>
         <v>0</v>
@@ -2766,7 +2772,10 @@
         <v>101</v>
       </c>
       <c r="B69" s="80"/>
-      <c r="C69" s="39"/>
+      <c r="C69" s="39" t="n">
+        <f aca="false">C17-C68</f>
+        <v>0</v>
+      </c>
       <c r="D69" s="39" t="n">
         <f aca="false">D17-D68</f>
         <v>0</v>

--- a/templates/eks_form.xlsx
+++ b/templates/eks_form.xlsx
@@ -1391,8 +1391,8 @@
   </sheetPr>
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A50" colorId="64" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E65" activeCellId="0" sqref="E65"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H47" activeCellId="0" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1542,24 +1542,12 @@
         <v>11</v>
       </c>
       <c r="B9" s="18"/>
-      <c r="C9" s="19" t="n">
-        <v>45658</v>
-      </c>
-      <c r="D9" s="19" t="n">
-        <v>45689</v>
-      </c>
-      <c r="E9" s="19" t="n">
-        <v>45717</v>
-      </c>
-      <c r="F9" s="19" t="n">
-        <v>45748</v>
-      </c>
-      <c r="G9" s="19" t="n">
-        <v>45778</v>
-      </c>
-      <c r="H9" s="19" t="n">
-        <v>45809</v>
-      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="20"/>
       <c r="J9" s="16"/>
       <c r="K9" s="17"/>
@@ -1802,27 +1790,27 @@
       <c r="B21" s="50"/>
       <c r="C21" s="51" t="n">
         <f aca="false">C9</f>
-        <v>45658</v>
+        <v>0</v>
       </c>
       <c r="D21" s="51" t="n">
         <f aca="false">D9</f>
-        <v>45689</v>
+        <v>0</v>
       </c>
       <c r="E21" s="51" t="n">
         <f aca="false">E9</f>
-        <v>45717</v>
+        <v>0</v>
       </c>
       <c r="F21" s="51" t="n">
         <f aca="false">F9</f>
-        <v>45748</v>
+        <v>0</v>
       </c>
       <c r="G21" s="51" t="n">
         <f aca="false">G9</f>
-        <v>45778</v>
+        <v>0</v>
       </c>
       <c r="H21" s="51" t="n">
         <f aca="false">H9</f>
-        <v>45809</v>
+        <v>0</v>
       </c>
       <c r="I21" s="52"/>
       <c r="J21" s="48"/>
@@ -2321,27 +2309,27 @@
       <c r="B47" s="50"/>
       <c r="C47" s="51" t="n">
         <f aca="false">C21</f>
-        <v>45658</v>
+        <v>0</v>
       </c>
       <c r="D47" s="51" t="n">
         <f aca="false">D21</f>
-        <v>45689</v>
+        <v>0</v>
       </c>
       <c r="E47" s="51" t="n">
         <f aca="false">E21</f>
-        <v>45717</v>
+        <v>0</v>
       </c>
       <c r="F47" s="51" t="n">
         <f aca="false">F21</f>
-        <v>45748</v>
+        <v>0</v>
       </c>
       <c r="G47" s="51" t="n">
         <f aca="false">G21</f>
-        <v>45778</v>
+        <v>0</v>
       </c>
       <c r="H47" s="51" t="n">
         <f aca="false">H21</f>
-        <v>45809</v>
+        <v>0</v>
       </c>
       <c r="I47" s="51"/>
       <c r="J47" s="48"/>
